--- a/data/trans_dic/DCD-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Habitat-trans_dic.xlsx
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 10,82</t>
+          <t>2,94; 10,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 13,86</t>
+          <t>3,53; 13,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 26,14</t>
+          <t>11,73; 26,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 33,77</t>
+          <t>17,44; 34,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 22,59</t>
+          <t>8,58; 22,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,47; 35,77</t>
+          <t>22,42; 34,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 20,7</t>
+          <t>11,06; 20,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,86</t>
+          <t>7,18; 15,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,1; 29,12</t>
+          <t>19,84; 28,7</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,76</t>
+          <t>6,76; 11,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,34</t>
+          <t>4,93; 9,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,94</t>
+          <t>12,11; 17,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,57; 21,06</t>
+          <t>14,72; 20,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 17,09</t>
+          <t>11,02; 17,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,31; 28,06</t>
+          <t>21,05; 28,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,42; 15,57</t>
+          <t>11,3; 15,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,17</t>
+          <t>8,68; 12,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,0; 22,38</t>
+          <t>17,92; 22,5</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,43</t>
+          <t>5,03; 8,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,6</t>
+          <t>5,4; 8,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 13,81</t>
+          <t>9,34; 14,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 18,48</t>
+          <t>13,81; 18,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,77</t>
+          <t>10,7; 14,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,68; 28,58</t>
+          <t>23,66; 28,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,99</t>
+          <t>9,88; 12,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,24</t>
+          <t>8,45; 11,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,17; 20,7</t>
+          <t>17,16; 20,71</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,65</t>
+          <t>4,0; 7,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,67</t>
+          <t>4,11; 7,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,66</t>
+          <t>9,83; 14,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 17,68</t>
+          <t>12,29; 17,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,39</t>
+          <t>8,56; 13,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 28,54</t>
+          <t>16,16; 28,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,79</t>
+          <t>8,57; 11,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,74</t>
+          <t>6,76; 9,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 20,92</t>
+          <t>15,0; 21,13</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,29</t>
+          <t>4,84; 8,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,0</t>
+          <t>5,45; 8,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,38; 16,63</t>
+          <t>12,31; 17,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,84; 18,3</t>
+          <t>13,76; 18,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,36; 17,08</t>
+          <t>12,51; 17,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 29,66</t>
+          <t>24,59; 29,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,89</t>
+          <t>10,09; 12,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 12,61</t>
+          <t>9,75; 12,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,42; 22,94</t>
+          <t>19,44; 23,08</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>5,85; 7,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>5,86; 7,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,13; 14,65</t>
+          <t>12,03; 14,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>15,14; 17,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>11,81; 14,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,39; 27,3</t>
+          <t>23,3; 27,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,47</t>
+          <t>10,82; 12,39</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,25; 10,71</t>
+          <t>9,24; 10,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,57; 20,79</t>
+          <t>18,62; 20,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 10,87</t>
+          <t>2,93; 11,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 13,57</t>
+          <t>3,33; 13,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 34,46</t>
+          <t>17,22; 35,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 22,06</t>
+          <t>8,51; 22,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 20,93</t>
+          <t>10,65; 20,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,18; 15,42</t>
+          <t>6,72; 15,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,82</t>
+          <t>6,86; 11,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,33</t>
+          <t>4,85; 9,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,72; 20,92</t>
+          <t>14,49; 21,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 17,34</t>
+          <t>11,02; 17,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,3; 15,52</t>
+          <t>11,22; 15,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 12,39</t>
+          <t>8,56; 12,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,3</t>
+          <t>5,08; 8,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,81</t>
+          <t>5,45; 8,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,81; 18,49</t>
+          <t>13,83; 18,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,7; 14,78</t>
+          <t>10,61; 14,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 12,96</t>
+          <t>9,91; 12,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,45; 11,28</t>
+          <t>8,52; 11,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,57</t>
+          <t>3,95; 7,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,85</t>
+          <t>4,08; 7,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 17,58</t>
+          <t>12,22; 17,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,23</t>
+          <t>8,73; 13,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,82</t>
+          <t>8,58; 11,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,76; 9,65</t>
+          <t>6,97; 9,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,17</t>
+          <t>4,91; 8,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,86</t>
+          <t>5,47; 8,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 18,28</t>
+          <t>13,82; 18,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,51; 17,19</t>
+          <t>12,53; 17,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,09; 12,88</t>
+          <t>10,01; 12,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 12,83</t>
+          <t>9,67; 12,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,59</t>
+          <t>5,77; 7,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,71</t>
+          <t>5,91; 7,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,14; 17,66</t>
+          <t>15,02; 17,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,22</t>
+          <t>11,92; 14,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,82; 12,39</t>
+          <t>10,76; 12,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,71</t>
+          <t>9,24; 10,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/DCD-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,36</t>
+          <t>2,78; 10,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 13,57</t>
+          <t>3,53; 13,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 26,22</t>
+          <t>11,81; 26,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,22; 35,3</t>
+          <t>16,86; 33,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,51; 22,24</t>
+          <t>7,99; 22,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,42; 34,98</t>
+          <t>22,47; 35,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 20,36</t>
+          <t>10,78; 20,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 15,67</t>
+          <t>7,0; 15,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 28,7</t>
+          <t>20,1; 29,12</t>
         </is>
       </c>
     </row>
@@ -869,17 +869,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,44</t>
+          <t>6,89; 11,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,27</t>
+          <t>4,86; 9,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,11; 17,88</t>
+          <t>12,2; 17,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,17 +889,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,49; 21,11</t>
+          <t>14,57; 21,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 17,05</t>
+          <t>11,22; 17,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 28,28</t>
+          <t>21,31; 28,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 15,48</t>
+          <t>11,42; 15,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,56; 12,25</t>
+          <t>8,53; 12,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,92; 22,5</t>
+          <t>18,0; 22,38</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,25</t>
+          <t>4,99; 8,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,65</t>
+          <t>5,42; 8,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 14,09</t>
+          <t>9,31; 13,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,83; 18,54</t>
+          <t>13,71; 18,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,79</t>
+          <t>10,61; 14,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,66; 28,45</t>
+          <t>23,68; 28,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 12,8</t>
+          <t>10,1; 12,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 11,23</t>
+          <t>8,42; 11,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,16; 20,71</t>
+          <t>17,17; 20,7</t>
         </is>
       </c>
     </row>
@@ -1149,17 +1149,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,63</t>
+          <t>3,96; 7,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,67</t>
+          <t>4,16; 7,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,56</t>
+          <t>9,84; 14,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,22; 17,55</t>
+          <t>12,43; 17,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,73; 13,22</t>
+          <t>8,8; 13,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,16; 28,71</t>
+          <t>16,09; 28,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 11,87</t>
+          <t>8,57; 11,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 9,84</t>
+          <t>6,84; 9,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 21,13</t>
+          <t>14,42; 20,92</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,12</t>
+          <t>5,03; 8,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,85</t>
+          <t>5,44; 9,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,31; 17,03</t>
+          <t>12,38; 16,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,17 +1309,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 18,53</t>
+          <t>13,84; 18,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,53; 17,25</t>
+          <t>12,36; 17,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,59; 29,66</t>
+          <t>24,44; 29,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1329,17 +1329,17 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,01; 12,92</t>
+          <t>9,96; 12,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,67; 12,68</t>
+          <t>9,75; 12,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,44; 23,08</t>
+          <t>19,42; 22,94</t>
         </is>
       </c>
     </row>
@@ -1429,17 +1429,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,54</t>
+          <t>5,78; 7,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,69</t>
+          <t>5,94; 7,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,03; 14,44</t>
+          <t>12,13; 14,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,02; 17,63</t>
+          <t>15,09; 17,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,36</t>
+          <t>11,92; 14,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,3; 27,34</t>
+          <t>23,39; 27,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,76; 12,36</t>
+          <t>10,85; 12,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,24; 10,68</t>
+          <t>9,25; 10,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,62; 20,89</t>
+          <t>18,57; 20,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +542,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,14 +618,11 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>15,53%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>10,69%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>23,86%</t>
+          <t>20,17%</t>
         </is>
       </c>
     </row>
@@ -724,69 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>6,27; 10,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 10,82</t>
+          <t>5,11; 9,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 13,86</t>
+          <t>12,41; 17,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 26,14</t>
+          <t>15,82; 21,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>11,07; 16,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 33,77</t>
+          <t>19,91; 27,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 22,59</t>
+          <t>11,95; 15,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,47; 35,77</t>
+          <t>8,84; 12,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>10,78; 20,7</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 15,86</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>20,1; 29,12</t>
+          <t>17,8; 22,39</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,26%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>10,33%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>20,18%</t>
+          <t>16,88%</t>
         </is>
       </c>
     </row>
@@ -864,69 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>4,99; 8,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,76</t>
+          <t>5,42; 8,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,34</t>
+          <t>4,88; 12,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,94</t>
+          <t>13,71; 18,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>10,61; 14,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,57; 21,06</t>
+          <t>23,79; 28,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 17,09</t>
+          <t>10,1; 12,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,31; 28,06</t>
+          <t>8,42; 11,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>11,42; 15,57</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>8,53; 12,17</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>18,0; 22,38</t>
+          <t>11,2; 19,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>11,37%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>9,81%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>18,9%</t>
+          <t>16,86%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,96; 7,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,43</t>
+          <t>4,16; 7,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,6</t>
+          <t>9,66; 14,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 13,81</t>
+          <t>12,43; 17,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>8,8; 13,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 18,48</t>
+          <t>11,26; 27,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,77</t>
+          <t>8,57; 11,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,68; 28,58</t>
+          <t>6,84; 9,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,1; 12,99</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>8,42; 11,24</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>17,17; 20,7</t>
+          <t>10,66; 19,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>10,13%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>8,28%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>18,62%</t>
+          <t>20,29%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>5,03; 8,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,65</t>
+          <t>5,44; 9,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,67</t>
+          <t>12,29; 16,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,66</t>
+          <t>13,84; 18,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>12,36; 17,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 17,68</t>
+          <t>20,3; 28,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,39</t>
+          <t>9,96; 12,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 28,54</t>
+          <t>9,75; 12,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>8,57; 11,79</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>6,84; 9,74</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>14,42; 20,92</t>
+          <t>17,77; 21,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>11,46%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>11,1%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>21,15%</t>
+          <t>18,46%</t>
         </is>
       </c>
     </row>
@@ -1284,224 +1125,68 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,78; 7,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,29</t>
+          <t>5,94; 7,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,0</t>
+          <t>9,66; 13,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,38; 16,63</t>
+          <t>15,09; 17,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>11,92; 14,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,84; 18,3</t>
+          <t>20,34; 26,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,36; 17,08</t>
+          <t>10,85; 12,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,44; 29,66</t>
+          <t>9,25; 10,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>9,96; 12,89</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>9,75; 12,61</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>19,42; 22,94</t>
+          <t>15,99; 19,89</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,66%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,72%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,23%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>16,31%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,05%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>25,72%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>11,57%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>9,95%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>19,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,78; 7,5</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 7,63</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>12,13; 14,65</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>15,09; 17,61</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>11,92; 14,22</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>23,39; 27,3</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>10,85; 12,47</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>9,25; 10,71</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>18,57; 20,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/DCD-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 10,81</t>
+          <t>6,53; 10,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,0</t>
+          <t>5,06; 9,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,41; 17,86</t>
+          <t>12,45; 17,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,82; 21,77</t>
+          <t>15,86; 22,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 16,71</t>
+          <t>11,37; 16,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,91; 27,64</t>
+          <t>19,46; 27,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 15,52</t>
+          <t>11,76; 15,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 12,14</t>
+          <t>8,85; 12,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 22,39</t>
+          <t>17,32; 22,1</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,43</t>
+          <t>5,0; 8,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,6</t>
+          <t>5,44; 8,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 12,53</t>
+          <t>5,29; 12,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,71; 18,48</t>
+          <t>13,71; 18,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,61; 14,77</t>
+          <t>10,5; 14,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,79; 28,7</t>
+          <t>23,85; 28,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,1; 12,99</t>
+          <t>10,0; 12,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,24</t>
+          <t>8,49; 11,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,2; 19,67</t>
+          <t>11,21; 19,47</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,65</t>
+          <t>3,92; 7,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,67</t>
+          <t>4,16; 7,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,66; 14,5</t>
+          <t>9,55; 14,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,43; 17,68</t>
+          <t>11,95; 17,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,39</t>
+          <t>8,75; 13,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,26; 27,43</t>
+          <t>11,99; 27,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,79</t>
+          <t>8,61; 11,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,74</t>
+          <t>6,92; 9,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,66; 19,9</t>
+          <t>11,41; 19,84</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,29</t>
+          <t>4,94; 8,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,0</t>
+          <t>5,51; 8,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,29; 16,63</t>
+          <t>12,15; 16,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,84; 18,3</t>
+          <t>13,41; 18,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 17,08</t>
+          <t>12,39; 17,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,3; 28,42</t>
+          <t>20,31; 28,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,89</t>
+          <t>10,03; 13,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,75; 12,61</t>
+          <t>9,73; 12,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 21,99</t>
+          <t>18,01; 22,19</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,5</t>
+          <t>5,82; 7,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,63</t>
+          <t>5,87; 7,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,77</t>
+          <t>9,76; 13,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,09; 17,61</t>
+          <t>15,09; 17,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,92; 14,22</t>
+          <t>11,91; 14,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,34; 26,46</t>
+          <t>19,84; 26,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 12,47</t>
+          <t>10,85; 12,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,25; 10,71</t>
+          <t>9,21; 10,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,99; 19,89</t>
+          <t>16,09; 19,92</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico discapacitante</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>59313</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46807</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>95102</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>131549</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>93286</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>179427</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>190862</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>140093</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>274529</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>45963; 74668</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34145; 62458</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>79097; 112970</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>110571; 153367</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>76490; 111833</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>141135; 200851</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>164632; 216398</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>119321; 163845</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>235650; 300685</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>66590</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>71027</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>112307</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>166418</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>131635</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>250806</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>202662</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>363113</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>50870; 85861</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>55667; 89298</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>63123; 151332</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>141564; 192532</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>109490; 156372</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>228613; 273343</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>204999; 262057</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>175432; 231906</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>241254; 418962</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41474</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>43404</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>83173</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>114054</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>84481</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>193052</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>155528</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>127885</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>276224</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29719; 55692</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31622; 56428</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>67314; 100662</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>92848; 135186</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>68658; 102165</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>111873; 260545</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>132154; 182150</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>106861; 150156</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>186888; 324962</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>60893</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>66787</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>133463</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>168212</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>153102</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>276668</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>229105</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>219889</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>410131</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>46829; 77431</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>51673; 83759</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>112633; 155778</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>141008; 190195</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>129309; 180929</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>222431; 307799</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>200662; 261017</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>192874; 251374</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>364171; 448576</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1548</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2072</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>228270</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>228026</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>424045</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>580234</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>462504</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>899952</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>808504</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>690530</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1323997</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>199449; 260328</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>199191; 260919</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>337616; 477084</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>537033; 626371</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>422039; 505227</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>736624; 976182</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>757863; 861259</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>639330; 743382</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1154101; 1428993</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>